--- a/xlsxmaps/level_0010.xlsx
+++ b/xlsxmaps/level_0010.xlsx
@@ -64,7 +64,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -177,13 +177,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -212,6 +299,33 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -253,6 +367,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ff7fd0ff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1314,7 +1429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1485,6 +1600,33 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -1496,14 +1638,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="10" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1666,6 +1808,33 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -1678,14 +1847,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="11" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1848,6 +2017,33 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -1860,14 +2056,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="12" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1901,10 +2097,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -1921,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4">
         <v>11000000</v>
@@ -1930,7 +2126,7 @@
         <v>11000000</v>
       </c>
       <c r="E3" s="4">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -1944,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="6">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
+        <v>11000000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>11000000</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -2030,6 +2226,33 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -2042,14 +2265,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="13" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -2212,6 +2435,33 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -2224,14 +2474,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="14" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -2394,6 +2644,33 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -2406,14 +2683,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="15" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="24" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -2576,6 +2853,33 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/xlsxmaps/level_0010.xlsx
+++ b/xlsxmaps/level_0010.xlsx
@@ -1891,7 +1891,7 @@
         <v>11000000</v>
       </c>
       <c r="D2" s="4">
-        <v>11000000</v>
+        <v>11001000</v>
       </c>
       <c r="E2" s="4">
         <v>11000000</v>
@@ -1914,7 +1914,7 @@
         <v>11000000</v>
       </c>
       <c r="D3" s="4">
-        <v>11000000</v>
+        <v>11001000</v>
       </c>
       <c r="E3" s="4">
         <v>11000000</v>
@@ -2123,7 +2123,7 @@
         <v>11000000</v>
       </c>
       <c r="D3" s="4">
-        <v>11000000</v>
+        <v>11001000</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>11000000</v>
       </c>
       <c r="C4" s="7">
-        <v>11000000</v>
+        <v>11001000</v>
       </c>
       <c r="D4" s="2">
         <v>11000000</v>
       </c>
       <c r="E4" s="3">
-        <v>11000000</v>
+        <v>11001000</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -2492,10 +2492,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="4">
-        <v>21000000</v>
+        <v>21001000</v>
       </c>
       <c r="D1" s="4">
-        <v>21000000</v>
+        <v>21001000</v>
       </c>
       <c r="E1" s="4">
         <v>0</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="3" ht="20.05" customHeight="1">
       <c r="A3" s="2">
-        <v>21000000</v>
+        <v>21001000</v>
       </c>
       <c r="B3" s="3">
         <v>21000000</v>
@@ -2547,7 +2547,7 @@
         <v>21000000</v>
       </c>
       <c r="F3" s="4">
-        <v>21000000</v>
+        <v>21001000</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>21000000</v>
       </c>
       <c r="B4" s="6">
-        <v>21000000</v>
+        <v>21001000</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>21000000</v>
+        <v>21001000</v>
       </c>
       <c r="F4" s="4">
         <v>21000000</v>

--- a/xlsxmaps/level_0010.xlsx
+++ b/xlsxmaps/level_0010.xlsx
@@ -1,47 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\厨房\编辑关卡\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360AEE75-A64D-426C-896B-F4AAF20122E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId3"/>
-    <sheet name="工作表 1-1" sheetId="2" r:id="rId4"/>
-    <sheet name="工作表 1-1-1" sheetId="3" r:id="rId5"/>
-    <sheet name="工作表 1-1-1-1" sheetId="4" r:id="rId6"/>
-    <sheet name="工作表 1-1-1-1-1" sheetId="5" r:id="rId7"/>
-    <sheet name="工作表 1-1-1-1-1-1" sheetId="6" r:id="rId8"/>
-    <sheet name="工作表 1-1-1-1-1-1-1" sheetId="7" r:id="rId9"/>
+    <sheet name="工作表 1-1-1-1-1-1 (2)" sheetId="8" r:id="rId1"/>
+    <sheet name="工作表 1-1-1-1-1-1" sheetId="6" r:id="rId2"/>
+    <sheet name="工作表 1-1-1-1-1-1-1" sheetId="7" r:id="rId3"/>
+    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表 1-1" sheetId="2" r:id="rId5"/>
+    <sheet name="工作表 1-1-1" sheetId="3" r:id="rId6"/>
+    <sheet name="工作表 1-1-1-1" sheetId="4" r:id="rId7"/>
+    <sheet name="工作表 1-1-1-1-1" sheetId="5" r:id="rId8"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -266,115 +269,173 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ff7fd0ff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FF7FD0FF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -576,7 +637,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -595,7 +656,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -625,7 +686,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -651,7 +712,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -677,7 +738,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -703,7 +764,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -729,7 +790,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -755,7 +816,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -781,7 +842,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -807,7 +868,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -833,7 +894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -846,9 +907,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -865,7 +932,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -884,7 +951,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -910,7 +977,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -936,7 +1003,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -962,7 +1029,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -988,7 +1055,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,7 +1081,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1040,7 +1107,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1066,7 +1133,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1092,7 +1159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,7 +1185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1131,9 +1198,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1147,7 +1220,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1166,7 +1239,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1196,7 +1269,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1222,7 +1295,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1248,7 +1321,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,7 +1347,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,7 +1373,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1326,7 +1399,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,7 +1425,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,7 +1451,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,7 +1477,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1417,29 +1490,38 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A56504F-259E-4E9A-90CE-52D8B1DC9278}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="8" width="16.28515625" style="24" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -1449,10 +1531,10 @@
       <c r="C1" s="4">
         <v>0</v>
       </c>
-      <c r="D1" s="4">
-        <v>11000000</v>
-      </c>
-      <c r="E1" s="4">
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3">
         <v>0</v>
       </c>
       <c r="F1" s="4">
@@ -1462,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1472,10 +1554,10 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
         <v>0</v>
       </c>
       <c r="F2" s="4">
@@ -1485,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1495,10 +1577,10 @@
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
         <v>0</v>
       </c>
       <c r="F3" s="4">
@@ -1508,17 +1590,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="3">
@@ -1531,20 +1613,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="9">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
         <v>0</v>
       </c>
       <c r="F5" s="4">
@@ -1554,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1577,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1600,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="14.7" customHeight="1">
+    <row r="8" spans="1:7" ht="14.65" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1609,7 +1691,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" ht="14.7" customHeight="1">
+    <row r="9" spans="1:7" ht="14.65" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -1618,7 +1700,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" ht="14.7" customHeight="1">
+    <row r="10" spans="1:7" ht="14.65" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1628,8 +1710,9 @@
       <c r="G10" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1637,18 +1720,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="19" customWidth="1"/>
+    <col min="1" max="8" width="16.28515625" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -1656,10 +1741,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="4">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="D1" s="4">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="E1" s="4">
         <v>0</v>
@@ -1671,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1679,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>11000000</v>
+        <v>21001000</v>
       </c>
       <c r="D2" s="4">
-        <v>11000000</v>
+        <v>21001000</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -1694,12 +1779,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>21001000</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -1708,21 +1793,21 @@
         <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>21001000</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="B4" s="6">
-        <v>0</v>
+        <v>21001000</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -1731,16 +1816,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>21001000</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="9">
         <v>0</v>
       </c>
@@ -1763,21 +1848,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
         <v>0</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -1786,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1809,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="14.7" customHeight="1">
+    <row r="8" spans="1:7" ht="14.65" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1818,7 +1903,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" ht="14.7" customHeight="1">
+    <row r="9" spans="1:7" ht="14.65" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -1827,7 +1912,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" ht="14.7" customHeight="1">
+    <row r="10" spans="1:7" ht="14.65" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1837,8 +1922,9 @@
       <c r="G10" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1846,18 +1932,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="20" customWidth="1"/>
+    <col min="1" max="8" width="16.28515625" style="24" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -1868,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="4">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="E1" s="4">
         <v>0</v>
@@ -1880,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1888,13 +1976,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="D2" s="4">
-        <v>11001000</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4">
-        <v>11000000</v>
+        <v>21000000</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -1903,30 +1991,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="C3" s="4">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>11001000</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -1949,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="9">
         <v>0</v>
       </c>
@@ -1972,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1995,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -2018,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="14.7" customHeight="1">
+    <row r="8" spans="1:7" ht="14.65" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2027,7 +2115,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" ht="14.7" customHeight="1">
+    <row r="9" spans="1:7" ht="14.65" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -2036,7 +2124,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" ht="14.7" customHeight="1">
+    <row r="10" spans="1:7" ht="14.65" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -2046,8 +2134,9 @@
       <c r="G10" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2055,18 +2144,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="21" customWidth="1"/>
+    <col min="1" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -2077,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="4">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="E1" s="4">
         <v>0</v>
@@ -2089,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2112,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -2120,10 +2209,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>11001000</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -2135,21 +2224,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5">
         <v>0</v>
       </c>
       <c r="B4" s="6">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>11001000</v>
-      </c>
-      <c r="D4" s="2">
-        <v>11000000</v>
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>11001000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -2158,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="9">
         <v>0</v>
       </c>
@@ -2181,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -2204,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -2227,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="14.7" customHeight="1">
+    <row r="8" spans="1:7" ht="14.65" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2236,7 +2325,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" ht="14.7" customHeight="1">
+    <row r="9" spans="1:7" ht="14.65" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -2245,7 +2334,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" ht="14.7" customHeight="1">
+    <row r="10" spans="1:7" ht="14.65" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -2255,8 +2344,9 @@
       <c r="G10" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2264,18 +2354,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="22" customWidth="1"/>
+    <col min="1" max="8" width="16.28515625" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -2298,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2306,10 +2396,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="D2" s="4">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -2321,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -2332,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -2344,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -2352,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="7">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -2367,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="9">
         <v>0</v>
       </c>
@@ -2390,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -2413,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -2436,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="14.7" customHeight="1">
+    <row r="8" spans="1:7" ht="14.65" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2445,7 +2535,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" ht="14.7" customHeight="1">
+    <row r="9" spans="1:7" ht="14.65" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -2454,7 +2544,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" ht="14.7" customHeight="1">
+    <row r="10" spans="1:7" ht="14.65" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -2464,8 +2554,9 @@
       <c r="G10" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2473,18 +2564,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="23" customWidth="1"/>
+    <col min="1" max="8" width="16.28515625" style="20" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -2492,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="4">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="D1" s="4">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="E1" s="4">
         <v>0</v>
@@ -2507,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2515,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>21000000</v>
+        <v>11000000</v>
       </c>
       <c r="D2" s="4">
-        <v>21000000</v>
+        <v>11001000</v>
       </c>
       <c r="E2" s="4">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -2530,35 +2621,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>11001000</v>
       </c>
       <c r="E3" s="4">
-        <v>21000000</v>
+        <v>11000000</v>
       </c>
       <c r="F3" s="4">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="B4" s="6">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -2567,16 +2658,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>21001000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="9">
         <v>0</v>
       </c>
@@ -2599,21 +2690,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
         <v>0</v>
       </c>
       <c r="B6" s="3">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -2622,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -2645,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="14.7" customHeight="1">
+    <row r="8" spans="1:7" ht="14.65" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2654,7 +2745,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" ht="14.7" customHeight="1">
+    <row r="9" spans="1:7" ht="14.65" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -2663,7 +2754,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" ht="14.7" customHeight="1">
+    <row r="10" spans="1:7" ht="14.65" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -2673,8 +2764,9 @@
       <c r="G10" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2682,18 +2774,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="24" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="24" customWidth="1"/>
+    <col min="1" max="8" width="16.28515625" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -2704,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="4">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="E1" s="4">
         <v>0</v>
@@ -2716,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2724,13 +2816,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2" s="4">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -2739,44 +2831,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>11001000</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5">
         <v>0</v>
       </c>
       <c r="B4" s="6">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
+        <v>11001000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>11000000</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>11001000</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -2785,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="9">
         <v>0</v>
       </c>
@@ -2808,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -2831,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -2854,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="14.7" customHeight="1">
+    <row r="8" spans="1:7" ht="14.65" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2863,7 +2955,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" ht="14.7" customHeight="1">
+    <row r="9" spans="1:7" ht="14.65" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -2872,7 +2964,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" ht="14.7" customHeight="1">
+    <row r="10" spans="1:7" ht="14.65" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -2882,8 +2974,219 @@
       <c r="G10" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="8" width="16.28515625" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>11000000</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>11000000</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11000000</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="9">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.65" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.65" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.65" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/xlsxmaps/level_0010.xlsx
+++ b/xlsxmaps/level_0010.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\接收文件\厨房\编辑关卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360AEE75-A64D-426C-896B-F4AAF20122E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6E5B4E-8E2E-4283-8B83-65CDFA349620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1-1-1-1-1-1 (2)" sheetId="8" r:id="rId1"/>
     <sheet name="工作表 1-1-1-1-1-1" sheetId="6" r:id="rId2"/>
     <sheet name="工作表 1-1-1-1-1-1-1" sheetId="7" r:id="rId3"/>
-    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
-    <sheet name="工作表 1-1" sheetId="2" r:id="rId5"/>
-    <sheet name="工作表 1-1-1" sheetId="3" r:id="rId6"/>
-    <sheet name="工作表 1-1-1-1" sheetId="4" r:id="rId7"/>
-    <sheet name="工作表 1-1-1-1-1" sheetId="5" r:id="rId8"/>
+    <sheet name="工作表 1-1-1-1-1-1 (3)" sheetId="9" r:id="rId4"/>
+    <sheet name="工作表 1" sheetId="1" r:id="rId5"/>
+    <sheet name="工作表 1-1" sheetId="2" r:id="rId6"/>
+    <sheet name="工作表 1-1-1" sheetId="3" r:id="rId7"/>
+    <sheet name="工作表 1-1-1-1" sheetId="4" r:id="rId8"/>
+    <sheet name="工作表 1-1-1-1-1" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1935,7 +1936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2144,6 +2145,218 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759BD1E2-CC9B-4578-BF09-C12B5F13D5FD}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <cols>
+    <col min="1" max="8" width="16.28515625" style="24" customWidth="1"/>
+    <col min="9" max="16384" width="16.28515625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.65" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.65" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.65" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -2353,7 +2566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -2563,7 +2776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -2773,7 +2986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -2983,7 +3196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
